--- a/src/quanlycuahanggiay_java/excel/PhieuNhap.xlsx
+++ b/src/quanlycuahanggiay_java/excel/PhieuNhap.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Mã PN</t>
   </si>
@@ -29,19 +29,37 @@
     <t>Tổng tiền</t>
   </si>
   <si>
-    <t>18</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCC002    </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2024-06-04</t>
+  </si>
+  <si>
+    <t>1200000.00</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t xml:space="preserve">NCC001    </t>
   </si>
   <si>
-    <t>1</t>
+    <t>2024-06-06</t>
   </si>
   <si>
-    <t>2024-05-29</t>
+    <t>2.00</t>
   </si>
   <si>
-    <t>44.00</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>12.00</t>
   </si>
 </sst>
 </file>
@@ -86,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -126,6 +144,40 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/quanlycuahanggiay_java/excel/PhieuNhap.xlsx
+++ b/src/quanlycuahanggiay_java/excel/PhieuNhap.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Mã PN</t>
   </si>
@@ -29,37 +29,43 @@
     <t>Tổng tiền</t>
   </si>
   <si>
-    <t>20</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCC001    </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t xml:space="preserve">NCC002    </t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2024-06-04</t>
-  </si>
-  <si>
-    <t>1200000.00</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCC001    </t>
-  </si>
-  <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>12.00</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>60000000.00</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2024-06-07</t>
+  </si>
+  <si>
+    <t>600000.00</t>
   </si>
 </sst>
 </file>
@@ -104,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -155,15 +161,15 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -172,10 +178,27 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
